--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/DeliveryNote.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/DeliveryNote.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denden/local/his_vb/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HanbaiKanri_1.3.8\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430CB0F8-8341-0340-A2A1-3DF8213E6CD1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B416252-890A-435A-AD8C-969808767DCB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24860" windowHeight="20600" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
+    <workbookView xWindow="0" yWindow="444" windowWidth="24864" windowHeight="20604" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,52 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
-    <t>レビガータ株式会社</t>
-    <rPh sb="5" eb="9">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0200004 岩手県 盛岡市</t>
-    <rPh sb="8" eb="11">
-      <t>イワテケン</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>モリオカシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大通三丁目6番12号 開運橋センタービル3階</t>
-    <rPh sb="0" eb="2">
-      <t>オオドオリ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>サンチョウメ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ゴウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カイウン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>バシ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>telp. 019-600-0000 Fax. 019-600-0000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -197,12 +151,28 @@
     <t>259_deliveryNote_20180122</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>PT.ZENBI MACHINERY AND ELECTRONICS INDONESIA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEL:+62-21-89905877 FAX:+62-21-89905876</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cikarang Techno Park Building-3A　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jl.Inti 1 Blok C1 No.7,Lippo Cikarang, Bekasi 17550</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,7 +362,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -416,16 +395,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,6 +412,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>7622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2934</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F5D67CC-0A4B-49B9-A25A-EF0B95B00E2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7622"/>
+          <a:ext cx="1280160" cy="635392"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -744,141 +769,139 @@
   <dimension ref="A1:AA39"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:M10"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="16.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="26" width="3.1640625" style="1"/>
-    <col min="27" max="27" width="3.1640625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="3.1640625" style="1"/>
+    <col min="1" max="16384" width="3.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="A2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="A3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-    </row>
-    <row r="5" spans="1:27" ht="18.75" customHeight="1">
+    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.45">
+      <c r="A1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A3" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A4" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+    </row>
+    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -907,192 +930,192 @@
       <c r="Z5" s="3"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:27">
-      <c r="A6" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-    </row>
-    <row r="8" spans="1:27" ht="19.5" customHeight="1">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A6" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+    </row>
+    <row r="8" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
+        <v>7</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="7"/>
       <c r="T8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="U8" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-    </row>
-    <row r="9" spans="1:27">
+        <v>7</v>
+      </c>
+      <c r="U8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
+        <v>7</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="7"/>
       <c r="T9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="U9" s="24">
+        <v>7</v>
+      </c>
+      <c r="U9" s="16">
         <v>43122</v>
       </c>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="24"/>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
       <c r="N10" s="6"/>
       <c r="O10" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="7"/>
       <c r="T10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
-    </row>
-    <row r="11" spans="1:27">
+        <v>7</v>
+      </c>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -1117,7 +1140,7 @@
       <c r="Z11" s="10"/>
       <c r="AA11" s="10"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="7"/>
@@ -1146,141 +1169,141 @@
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
     </row>
-    <row r="13" spans="1:27">
-      <c r="A13" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23" t="s">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A13" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
-    </row>
-    <row r="14" spans="1:27">
-      <c r="A14" s="16">
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A14" s="19">
         <v>1</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="16">
+      <c r="B14" s="19"/>
+      <c r="C14" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="19">
         <v>100</v>
       </c>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-    </row>
-    <row r="15" spans="1:27">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-    </row>
-    <row r="16" spans="1:27">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1309,7 +1332,7 @@
       <c r="Z17" s="8"/>
       <c r="AA17" s="8"/>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -1324,7 +1347,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="N18" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
@@ -1333,7 +1356,7 @@
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
       <c r="U18" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="V18" s="10"/>
       <c r="W18" s="10"/>
@@ -1342,7 +1365,7 @@
       <c r="Z18" s="10"/>
       <c r="AA18" s="10"/>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1371,7 +1394,7 @@
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1400,7 +1423,7 @@
       <c r="Z20" s="10"/>
       <c r="AA20" s="10"/>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -1415,29 +1438,29 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="T21" s="10"/>
       <c r="U21" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="V21" s="10"/>
       <c r="W21" s="10"/>
       <c r="X21" s="10"/>
       <c r="Y21" s="10"/>
       <c r="Z21" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AA21" s="10"/>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -1466,45 +1489,45 @@
       <c r="Z22" s="10"/>
       <c r="AA22" s="10"/>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
       <c r="V23" s="14"/>
       <c r="W23" s="14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Y23" s="14"/>
       <c r="Z23" s="14"/>
       <c r="AA23" s="14"/>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -1533,7 +1556,7 @@
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1562,7 +1585,7 @@
       <c r="Z25" s="10"/>
       <c r="AA25" s="10"/>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1591,7 +1614,7 @@
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1620,7 +1643,7 @@
       <c r="Z27" s="10"/>
       <c r="AA27" s="10"/>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1649,7 +1672,7 @@
       <c r="Z28" s="10"/>
       <c r="AA28" s="10"/>
     </row>
-    <row r="29" spans="1:27" ht="20">
+    <row r="29" spans="1:27" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -1678,7 +1701,7 @@
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="2"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -1707,7 +1730,7 @@
       <c r="Z30" s="10"/>
       <c r="AA30" s="10"/>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1736,7 +1759,7 @@
       <c r="Z31" s="8"/>
       <c r="AA31" s="8"/>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1765,7 +1788,7 @@
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1794,7 +1817,7 @@
       <c r="Z33" s="8"/>
       <c r="AA33" s="8"/>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -1823,7 +1846,7 @@
       <c r="Z34" s="8"/>
       <c r="AA34" s="8"/>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -1852,7 +1875,7 @@
       <c r="Z35" s="12"/>
       <c r="AA35" s="12"/>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -1881,7 +1904,7 @@
       <c r="Z36" s="12"/>
       <c r="AA36" s="12"/>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -1910,7 +1933,7 @@
       <c r="Z37" s="12"/>
       <c r="AA37" s="12"/>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -1939,7 +1962,7 @@
       <c r="Z38" s="12"/>
       <c r="AA38" s="12"/>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -1970,23 +1993,23 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="T13:AA13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="T14:AA14"/>
+    <mergeCell ref="T15:AA15"/>
+    <mergeCell ref="T16:AA16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="A2:AA2"/>
+    <mergeCell ref="A3:AA3"/>
+    <mergeCell ref="A4:AA4"/>
+    <mergeCell ref="A6:AA7"/>
     <mergeCell ref="E8:M8"/>
     <mergeCell ref="E9:M10"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N16:P16"/>
     <mergeCell ref="Q15:S15"/>
     <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="A1:AA1"/>
-    <mergeCell ref="A2:AA2"/>
-    <mergeCell ref="A3:AA3"/>
-    <mergeCell ref="A4:AA4"/>
-    <mergeCell ref="A6:AA7"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C13:M13"/>
     <mergeCell ref="C16:M16"/>
@@ -1994,15 +2017,16 @@
     <mergeCell ref="C14:M14"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="T14:AA14"/>
-    <mergeCell ref="T15:AA15"/>
-    <mergeCell ref="T16:AA16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="T13:AA13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="U10:AA10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/DeliveryNote.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/DeliveryNote.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tateiwa\Source\Repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAOATO\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825F5632-F35B-430B-B90B-CF38C111CDF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -18,181 +17,22 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1 (2)'!$A$1:$E$40</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>KAOATO</author>
-  </authors>
-  <commentList>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>会社名です。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DeliverynoteNo</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>住所１</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>出庫日</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>住所２、３、郵便番号</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>カスタマーPO</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>電話番号</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>メーカー、アイテム、型番</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>出庫数</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>単位</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>備考（今と仕様同じで良いです）</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>PT. ZENBI MACHINERY AND ELECTRONICS INDONESIA</t>
   </si>
@@ -263,12 +103,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -352,25 +192,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -442,6 +263,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -478,19 +306,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="2"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -801,101 +624,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="38" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.125" style="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="22"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
@@ -903,10 +726,10 @@
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="22"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
@@ -935,207 +758,207 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="23"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="23"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="25"/>
     </row>
     <row r="16" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="23"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="23"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="23"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="23"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="23"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="23"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="23"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="23"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="23"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="23"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="23"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="23"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="23"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="9"/>
     </row>
     <row r="29" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="23"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="23"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="16"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="19"/>
     </row>
     <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="16"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="19"/>
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="16"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="19"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="C35" s="9" t="s">
+      <c r="A35" s="11"/>
+      <c r="C35" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
       <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="9" t="s">
+      <c r="A38" s="15"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D38" s="6"/>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
       <c r="D39" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
     </row>
     <row r="41" spans="1:5" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:5" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="13"/>
+      <c r="D42" s="16"/>
     </row>
     <row r="43" spans="1:5" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:5" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:5" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
+      <c r="A50" s="16"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
+      <c r="A51" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1146,9 +969,7 @@
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A6:E6"/>
   </mergeCells>
-  <phoneticPr fontId="15"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.39370078740157483" bottom="0.74803149606299213" header="0.15748031496062992" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/DeliveryNote.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/DeliveryNote.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAOATO\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tanux\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3293BE8A-1551-40FB-B258-E7B2E2828899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23955" windowHeight="14655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -52,9 +53,6 @@
     <t>To</t>
   </si>
   <si>
-    <t>Delivery Note No.</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -98,17 +96,21 @@
   </si>
   <si>
     <t>(                     )</t>
+  </si>
+  <si>
+    <t>Order No.</t>
+    <phoneticPr fontId="14"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -194,6 +196,13 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -294,6 +303,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -306,14 +318,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -624,68 +633,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E15"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="38" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -694,29 +703,29 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="4" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="5"/>
@@ -724,7 +733,7 @@
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -742,19 +751,19 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -762,14 +771,14 @@
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="25"/>
+      <c r="E14" s="21"/>
     </row>
     <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="25"/>
+      <c r="E15" s="21"/>
     </row>
     <row r="16" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
@@ -901,10 +910,10 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="C35" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -924,28 +933,28 @@
       <c r="A38" s="15"/>
       <c r="B38" s="13"/>
       <c r="C38" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="D39" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
     </row>
     <row r="41" spans="1:5" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:5" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
@@ -969,6 +978,7 @@
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A6:E6"/>
   </mergeCells>
+  <phoneticPr fontId="14"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.39370078740157483" bottom="0.74803149606299213" header="0.15748031496062992" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/DeliveryNote.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/DeliveryNote.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tanux\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAOATO\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3293BE8A-1551-40FB-B258-E7B2E2828899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23955" windowHeight="14655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23955" windowHeight="14655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1 (2)'!$A$1:$E$40</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>PT. ZENBI MACHINERY AND ELECTRONICS INDONESIA</t>
   </si>
@@ -105,12 +104,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -199,7 +198,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -320,9 +319,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="2"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -633,25 +632,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="38" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.125" style="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -660,7 +659,7 @@
       <c r="D1" s="23"/>
       <c r="E1" s="23"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
@@ -669,7 +668,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
@@ -678,7 +677,7 @@
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
@@ -687,7 +686,7 @@
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="25" t="s">
         <v>4</v>
       </c>
@@ -696,7 +695,7 @@
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -707,7 +706,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -718,10 +717,8 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
+    <row r="10" spans="1:7" ht="15" customHeight="1">
+      <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="3" t="s">
@@ -731,7 +728,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -742,14 +739,14 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="2"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75">
       <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
@@ -766,148 +763,148 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="21"/>
     </row>
-    <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="21"/>
     </row>
-    <row r="16" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="18"/>
       <c r="B31" s="19"/>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="19"/>
     </row>
-    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="18"/>
       <c r="B32" s="19"/>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
       <c r="E32" s="19"/>
     </row>
-    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="18"/>
       <c r="B33" s="19"/>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
       <c r="E33" s="19"/>
     </row>
-    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="35" spans="1:5">
       <c r="A35" s="11"/>
       <c r="C35" s="12" t="s">
         <v>15</v>
@@ -916,20 +913,20 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="15"/>
       <c r="B38" s="13"/>
       <c r="C38" s="12" t="s">
@@ -940,14 +937,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="D39" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="18.75" customHeight="1">
       <c r="A40" s="22" t="s">
         <v>18</v>
       </c>
@@ -956,17 +953,17 @@
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
     </row>
-    <row r="41" spans="1:5" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:5" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="9.9499999999999993" customHeight="1"/>
+    <row r="42" spans="1:5" ht="9.9499999999999993" customHeight="1">
       <c r="D42" s="16"/>
     </row>
-    <row r="43" spans="1:5" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:5" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:5" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="9.9499999999999993" customHeight="1"/>
+    <row r="44" spans="1:5" ht="9.9499999999999993" customHeight="1"/>
+    <row r="45" spans="1:5" ht="9.9499999999999993" customHeight="1"/>
+    <row r="50" spans="1:1">
       <c r="A50" s="16"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51" s="17"/>
     </row>
   </sheetData>
